--- a/python-timesheet-parsing/sample_timesheets/SBAL241004 - template 2 format.xlsx
+++ b/python-timesheet-parsing/sample_timesheets/SBAL241004 - template 2 format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed7a48ca9db46ee7/Documents/Github/creative-writing-metrics/python-timesheet-parsing/sample_timesheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A37FB31-212E-458E-8C2E-46348DA73688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0A37FB31-212E-458E-8C2E-46348DA73688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3B145B1-9A27-4053-AE23-22DA98E496F2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full Time " sheetId="1" r:id="rId1"/>
@@ -1121,78 +1121,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1212,6 +1140,78 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1228,45 +1228,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1552575" cy="628650"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="Image">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1473,19 +1434,19 @@
   <dimension ref="A1:O988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="53.7109375" customWidth="1"/>
-    <col min="5" max="12" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="4" max="4" width="53.7265625" customWidth="1"/>
+    <col min="5" max="12" width="8.7265625" customWidth="1"/>
     <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" customWidth="1"/>
     <col min="16" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1510,20 +1471,20 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="61"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="7"/>
       <c r="N2" s="4"/>
     </row>
@@ -1532,30 +1493,30 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65">
+      <c r="C3" s="97">
         <v>45569</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="9"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="100" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="10" t="s">
@@ -1579,7 +1540,7 @@
       <c r="K4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="70" t="s">
+      <c r="L4" s="102" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="11"/>
@@ -1587,9 +1548,9 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="12">
         <f t="shared" ref="E5:J5" si="0">IF(($C$3=""),"",(F5-1))</f>
         <v>45563</v>
@@ -1618,7 +1579,7 @@
         <f>IF(($C$3=""),"",C3)</f>
         <v>45569</v>
       </c>
-      <c r="L5" s="71"/>
+      <c r="L5" s="103"/>
       <c r="M5" s="11"/>
       <c r="N5" s="4"/>
     </row>
@@ -1728,18 +1689,18 @@
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="68"/>
       <c r="L10" s="26">
         <f>SUM(L6:L9)</f>
         <v>16.25</v>
@@ -1749,10 +1710,10 @@
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="28"/>
@@ -1785,10 +1746,10 @@
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="28"/>
@@ -1845,31 +1806,31 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100" t="s">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="100" t="s">
+      <c r="C16" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103">
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63">
         <v>8</v>
       </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
       <c r="L16" s="17">
         <f>SUM(E16:K16)</f>
         <v>8</v>
       </c>
-      <c r="M16" s="98">
+      <c r="M16" s="58">
         <v>8</v>
       </c>
-      <c r="N16" s="97"/>
+      <c r="N16" s="57"/>
     </row>
     <row r="17" spans="1:15" ht="4.5" customHeight="1">
       <c r="A17" s="19"/>
@@ -1931,18 +1892,18 @@
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
       <c r="A20" s="25"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="68"/>
       <c r="L20" s="26">
         <f>SUM(L12:L17)</f>
         <v>8.25</v>
@@ -1952,10 +1913,10 @@
     <row r="21" spans="1:15" ht="18" customHeight="1">
       <c r="A21" s="25"/>
       <c r="B21" s="39"/>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="15">
         <f t="shared" ref="E21:F21" si="2">SUM(E8:E17)</f>
         <v>0</v>
@@ -1992,11 +1953,11 @@
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
       <c r="A22" s="25"/>
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="78"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="15"/>
       <c r="F22" s="40"/>
       <c r="G22" s="41"/>
@@ -2030,66 +1991,66 @@
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="88" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="93" t="s">
+      <c r="E24" s="78"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="86">
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="75">
         <f>L21</f>
         <v>24.75</v>
       </c>
-      <c r="L24" s="87"/>
+      <c r="L24" s="76"/>
       <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="B25" s="81"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="93" t="s">
+      <c r="B25" s="69"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="94">
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86">
         <f>IF(32-K24&gt;0,32-K24, 0)</f>
         <v>7.25</v>
       </c>
-      <c r="L25" s="95"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="43"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="84" t="s">
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="96">
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="88">
         <f>L22</f>
         <v>0</v>
       </c>
-      <c r="L26" s="87"/>
+      <c r="L26" s="76"/>
       <c r="M26" s="43"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
@@ -2101,20 +2062,20 @@
         <f>C3</f>
         <v>45569</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="84" t="s">
+      <c r="D27" s="70"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="86">
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75">
         <f>K24+K25</f>
         <v>32</v>
       </c>
-      <c r="L27" s="87"/>
+      <c r="L27" s="76"/>
       <c r="M27" s="43"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
@@ -18455,6 +18416,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="C21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B24:C26"/>
     <mergeCell ref="G27:J27"/>
@@ -18466,22 +18439,9 @@
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="G26:J26"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>